--- a/msff/xls/DJDJ1010.xlsx
+++ b/msff/xls/DJDJ1010.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F69CC78-8E98-465C-988D-AAF1759D425F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB73A29-0D0F-4633-9F69-E085B3562464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14955" windowHeight="6315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly fees" sheetId="1" r:id="rId1"/>
-    <sheet name="cashflow proj" sheetId="2" r:id="rId2"/>
+    <sheet name="snapshot+cashflow" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="Uu3a2cpKFShdQOS5hGbHVpBpZG3LBMziin5Lk/AzPWM="/>
     </ext>
@@ -26,21 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
   <si>
     <t>This tab includes all and only monthly recurring fees.</t>
-  </si>
-  <si>
-    <t>first deposit, based on Year 1 discount</t>
-  </si>
-  <si>
-    <t>without discount</t>
-  </si>
-  <si>
-    <t>second deposit, based on Year 1 discount</t>
-  </si>
-  <si>
-    <t>2nd person入住</t>
   </si>
   <si>
     <t>total monthly</t>
@@ -157,6 +154,117 @@
     <t>AA+BB snapshot 21-Dec-24</t>
   </si>
   <si>
+    <t>..grandma PSBC</t>
+  </si>
+  <si>
+    <t>..lent to Genn HSBC</t>
+  </si>
+  <si>
+    <t>Room1109</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>#1010</t>
+  </si>
+  <si>
+    <t>18k/M</t>
+  </si>
+  <si>
+    <t>33k/M</t>
+  </si>
+  <si>
+    <t>.. round figure</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>^^ sum matching 收费清单 in google Drive</t>
+  </si>
+  <si>
+    <t>护理</t>
+  </si>
+  <si>
+    <t>第二人入住</t>
+  </si>
+  <si>
+    <t>Jun 2024 房费 first deposit</t>
+  </si>
+  <si>
+    <t>Jun 2024 房费 second deposit</t>
+  </si>
+  <si>
+    <t>(折扣)房费</t>
+  </si>
+  <si>
+    <t>USD 51k</t>
+  </si>
+  <si>
+    <t>RMB 170k</t>
+  </si>
+  <si>
+    <t>USD 133k</t>
+  </si>
+  <si>
+    <t>RMB 486k</t>
+  </si>
+  <si>
+    <t>by 21 Dec 2024, Project1560 has expatriated</t>
+  </si>
+  <si>
+    <t>by 28 Mar 2025, Project1560 has expatriated</t>
+  </si>
+  <si>
+    <t>Between 21-Dec-2024 and 28-Mar-2025</t>
+  </si>
+  <si>
+    <t>AA + BB</t>
+  </si>
+  <si>
+    <t>..TJJ PSBC negligible</t>
+  </si>
+  <si>
+    <t>…. LSQ ICBC USD 10268.8 #est</t>
+  </si>
+  <si>
+    <t>…. LSQ ICBC other deposit #est</t>
+  </si>
+  <si>
+    <t>…. LSQ ICBC 3Y FixD</t>
+  </si>
+  <si>
+    <t>..LSQ lent to Genn</t>
+  </si>
+  <si>
+    <t>..LSQ fund in TB's onshore accounts</t>
+  </si>
+  <si>
+    <t>..LSQ PSBC total-per-screenshot</t>
+  </si>
+  <si>
+    <t>.. LSQ ICBC total-per-screenshot</t>
+  </si>
+  <si>
+    <t>..TJJ ICBC total-per-screenshot</t>
+  </si>
+  <si>
+    <t>..grandpa PSBC total-per-screenshot</t>
+  </si>
+  <si>
+    <t>..grandma ICBC total-per-screenshot</t>
+  </si>
+  <si>
+    <t>..grandpa ICBC total-per-screenshot</t>
+  </si>
+  <si>
+    <t>..grandpa ICBC Rmb savings</t>
+  </si>
+  <si>
+    <t>..grandpa ICBC fixD</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -180,84 +288,62 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>, so she deserves any  interest earned on the "principal amount beyond my own  1560k"</t>
+      <t>, so she deserves any  interest earned on the "principal amount beyond 1560k"</t>
     </r>
   </si>
   <si>
-    <t>..grandpa ICBC TD</t>
+    <t>↲</t>
   </si>
   <si>
-    <t>..grandpa ICBC Rmb sav</t>
+    <t xml:space="preserve">BB= TJJ total/000  </t>
   </si>
   <si>
-    <t>USD 2k</t>
+    <t xml:space="preserve">AA= LSQ total/000  </t>
   </si>
   <si>
-    <t>..grandpa ICBC USD</t>
+    <t xml:space="preserve">AA= grandma total/000  </t>
   </si>
   <si>
-    <t>..grandpa ICBC total-per-mobank</t>
+    <t xml:space="preserve">BB= grandpa total/000  </t>
   </si>
   <si>
-    <t>..grandpa PSBC</t>
+    <t>↖</t>
   </si>
   <si>
-    <t xml:space="preserve">AA: grandpa total/000  </t>
+    <t>↙</t>
   </si>
   <si>
-    <t xml:space="preserve">BB: grandma total/000  </t>
+    <t>= Extra RMB expatriated</t>
   </si>
   <si>
-    <t>..grandma ICBC total-per-mobank</t>
-  </si>
-  <si>
-    <t>..grandma PSBC</t>
-  </si>
-  <si>
-    <t>..lent to Genn HSBC</t>
-  </si>
-  <si>
-    <t>Room1109</t>
-  </si>
-  <si>
-    <t>房费 discounted</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>#1010</t>
-  </si>
-  <si>
-    <t>tiered护理</t>
-  </si>
-  <si>
-    <t>18k/M</t>
-  </si>
-  <si>
-    <t>33k/M</t>
-  </si>
-  <si>
-    <t>.. round figure</t>
-  </si>
-  <si>
-    <t>food</t>
+    <t>..grandpa ICBC USD 2k #est</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="\+0;\-0;0"/>
+    <numFmt numFmtId="166" formatCode="[$¥-804]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="[$¥-804]#,##0"/>
+    <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="172" formatCode="[$¥-804]#,##0;[$¥-804]\-#,##0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,7 +389,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -449,91 +535,284 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -747,28 +1026,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H1000"/>
+  <dimension ref="B1:H1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="26" width="9" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="2:8" ht="14.25" customHeight="1">
       <c r="B2" s="1"/>
@@ -779,131 +1061,138 @@
       <c r="B3" s="1">
         <v>248966.88</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="H3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B4" s="1">
+      <c r="C3" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="2:8" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B4" s="52">
         <v>12768</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="H4" s="2">
-        <f>C7/0.95/0.8</f>
-        <v>28699.000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="H5" s="2"/>
+      <c r="C4" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="H4" s="43"/>
+    </row>
+    <row r="5" spans="2:8" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
+      <c r="B5" s="46">
+        <f>SUM(B3:B4)</f>
+        <v>261734.88</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B6" s="41"/>
-      <c r="C6" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="42"/>
-      <c r="G6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B7" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="41">
-        <f>SUM(B3:B4)/12</f>
+      <c r="B7" s="31"/>
+      <c r="C7" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B8" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="47">
+        <f>B5/12</f>
         <v>21811.24</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D8" s="48"/>
+      <c r="E8" s="47">
         <v>12159.24</v>
       </c>
-      <c r="E7" s="43"/>
-    </row>
-    <row r="8" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B8" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="45">
+    </row>
+    <row r="9" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B9" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="50">
         <v>2500</v>
       </c>
-      <c r="D8" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="42"/>
-    </row>
-    <row r="9" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B9" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="45">
-        <f>1800*2</f>
+      <c r="D9" s="51"/>
+      <c r="E9" s="50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B10" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="50">
+        <f>E10*2</f>
         <v>3600</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D10" s="51"/>
+      <c r="E10" s="50">
         <v>1800</v>
       </c>
-      <c r="E9" s="42"/>
-    </row>
-    <row r="10" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B10" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="45">
+    </row>
+    <row r="11" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="50">
         <f>1000+4000</f>
         <v>5000</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D11" s="51"/>
+      <c r="E11" s="50">
         <v>4000</v>
       </c>
-      <c r="E10" s="42"/>
-    </row>
-    <row r="11" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B12" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="41">
-        <f>SUM(C7:C10)</f>
+      <c r="B12" s="31"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="50"/>
+    </row>
+    <row r="13" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B13" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="47">
+        <f>SUM(C8:C11)</f>
         <v>32911.240000000005</v>
       </c>
-      <c r="D12" s="41">
-        <f>SUM(D7:D10)</f>
+      <c r="D13" s="49"/>
+      <c r="E13" s="47">
+        <f>SUM(E8:E11)</f>
         <v>17959.239999999998</v>
       </c>
-      <c r="E12" s="42"/>
-    </row>
-    <row r="13" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B13" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="34" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="14.25" customHeight="1">
       <c r="B15" s="1"/>
@@ -5835,31 +6124,41 @@
       <c r="C1000" s="1"/>
       <c r="E1000" s="1"/>
     </row>
+    <row r="1001" spans="2:5" ht="14.25" customHeight="1">
+      <c r="B1001" s="1"/>
+      <c r="C1001" s="1"/>
+      <c r="E1001" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:I1000"/>
+  <dimension ref="B1:J982"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="33.28515625" customWidth="1"/>
     <col min="6" max="6" width="4.5703125" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="26" width="9" customWidth="1"/>
   </cols>
@@ -5870,23 +6169,23 @@
     </row>
     <row r="2" spans="2:9" ht="14.25" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7">
         <v>380</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>4</v>
       </c>
       <c r="H2" s="9">
         <v>23000</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="14.25" customHeight="1">
@@ -5896,564 +6195,724 @@
         <v>80</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="34"/>
+        <v>6</v>
+      </c>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B4" s="36">
+      <c r="B4" s="39">
         <f>SUM(D2:D3)</f>
         <v>460</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="34"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B5" s="38">
+      <c r="B5" s="41">
         <f>SUM(D6:D7)</f>
         <v>1290</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="34"/>
+        <v>8</v>
+      </c>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="2:9" ht="14.25" customHeight="1">
       <c r="B6" s="10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="2">
         <v>950</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="34"/>
+        <v>10</v>
+      </c>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17">
+      <c r="B7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15">
         <v>340</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="35"/>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="38"/>
     </row>
     <row r="8" spans="2:9" ht="3" customHeight="1">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="H9" s="20">
+      <c r="B9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="H9" s="18">
         <f>1800*2</f>
         <v>3600</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>20</v>
+      <c r="I9" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B10" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="19">
+      <c r="B10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="17">
         <f>B4+B5</f>
         <v>1750</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="H10" s="20">
+      <c r="E10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="H10" s="18">
         <v>1000</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>23</v>
+      <c r="I10" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B11" s="21">
+      <c r="B11" s="19">
         <v>100</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="19">
+      <c r="C11" s="19"/>
+      <c r="D11" s="17">
         <f t="shared" ref="D11:D12" si="0">D10+B11</f>
         <v>1850</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="H11" s="20">
+      <c r="E11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="H11" s="18">
         <v>4000</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>25</v>
+      <c r="I11" s="16" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B12" s="21">
+      <c r="B12" s="19">
         <v>200</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="19">
+      <c r="C12" s="19"/>
+      <c r="D12" s="17">
         <f t="shared" si="0"/>
         <v>2050</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="H12" s="20">
+      <c r="E12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="H12" s="18">
         <f>2500*12</f>
         <v>30000</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>27</v>
+      <c r="I12" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="18" t="s">
-        <v>29</v>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="22">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="20">
         <f>320+320</f>
         <v>640</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="18">
         <f>2000*2</f>
         <v>4000</v>
       </c>
-      <c r="I14" s="18" t="s">
-        <v>31</v>
+      <c r="I14" s="16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="H15" s="20">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="H15" s="18">
         <f>30000*2</f>
         <v>60000</v>
       </c>
-      <c r="I15" s="18" t="s">
-        <v>33</v>
+      <c r="I15" s="16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B16" s="21">
+      <c r="B16" s="19">
         <v>7500</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="19">
+      <c r="C16" s="19"/>
+      <c r="D16" s="17">
         <f>D12+B16</f>
         <v>9550</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="H16" s="23">
+      <c r="E16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="H16" s="21">
         <v>1000</v>
       </c>
-      <c r="I16" s="24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B17" s="21">
+      <c r="I16" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B17" s="19">
         <v>100</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="19">
+      <c r="C17" s="19"/>
+      <c r="D17" s="17">
         <f>D16+B17</f>
         <v>9650</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="H17" s="25">
+      <c r="E17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="H17" s="23">
         <f>SUM(H9:H16)/1000</f>
         <v>103.6</v>
       </c>
-      <c r="I17" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B18" s="19"/>
-      <c r="C18" s="18">
+      <c r="I17" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B18" s="17"/>
+      <c r="C18" s="16">
         <f>-H17</f>
         <v>-103.6</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="17">
         <f t="shared" ref="D18:D21" si="1">D17+SUM(B18:C18)</f>
         <v>9546.4</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B19" s="21">
+      <c r="E18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B19" s="19">
         <f>H2/1000*F20</f>
         <v>115</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19">
+      <c r="C19" s="16"/>
+      <c r="D19" s="17">
         <f t="shared" si="1"/>
         <v>9661.4</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B20" s="19"/>
-      <c r="C20" s="18">
+      <c r="E19" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B20" s="17"/>
+      <c r="C20" s="16">
         <f>-9*$F$20</f>
         <v>-45</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="17">
         <f t="shared" si="1"/>
         <v>9616.4</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="22">
+      <c r="E20" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B21" s="19"/>
-      <c r="C21" s="18">
+    <row r="21" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B21" s="17"/>
+      <c r="C21" s="16">
         <f>-5*$F$20</f>
         <v>-25</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="17">
         <f t="shared" si="1"/>
         <v>9591.4</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B22" s="19"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B23" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19">
-        <f>SUM(C32:C33)</f>
+      <c r="E21" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B22" s="17"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B23" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17">
+        <f>SUM(B32:B33)</f>
         <v>9312.4430000000011</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B24" s="21"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>43</v>
+      <c r="E23" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B24" s="19"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B25" s="86" t="s">
+        <v>76</v>
       </c>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="2:9" ht="14.25" customHeight="1">
+    <row r="26" spans="2:10" ht="14.25" customHeight="1">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28">
+    <row r="27" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26">
         <f>150000+100000</f>
         <v>250000</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="40">
+      <c r="E27" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="68">
         <v>45647</v>
       </c>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I27" s="72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="14.25" customHeight="1">
       <c r="B28" s="10"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4">
         <f>21650+2793</f>
         <v>24443</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="34"/>
+      <c r="E28" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="69"/>
       <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="14.25" customHeight="1">
       <c r="B29" s="10"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="34"/>
+      <c r="D29" s="61">
+        <v>15000</v>
+      </c>
+      <c r="E29" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="69"/>
       <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="14.25" customHeight="1">
       <c r="B30" s="10"/>
-      <c r="D30" s="4">
+      <c r="C30" s="4">
         <v>291856</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="34"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="2:9" ht="14.25" customHeight="1">
+      <c r="D30" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="69"/>
+    </row>
+    <row r="31" spans="2:10" ht="14.25" customHeight="1">
       <c r="B31" s="10"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4">
+      <c r="C31" s="4">
         <v>13762</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="34"/>
-    </row>
-    <row r="32" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B32" s="12"/>
-      <c r="C32" s="29">
-        <f>SUM(D30:D31)/1000</f>
+      <c r="E31" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="69"/>
+    </row>
+    <row r="32" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B32" s="81">
+        <f>SUM(C30:C31)/1000</f>
         <v>305.61799999999999</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="34"/>
-    </row>
-    <row r="33" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B33" s="14"/>
-      <c r="C33" s="31">
-        <f>SUM(D34:D36)/1000</f>
+      <c r="C32" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="69"/>
+      <c r="H32" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="J32" s="30"/>
+    </row>
+    <row r="33" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B33" s="67">
+        <f>SUM(C34:C37)/1000</f>
         <v>9006.8250000000007</v>
       </c>
-      <c r="D33" s="32"/>
+      <c r="D33" s="29"/>
       <c r="E33" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="34"/>
-    </row>
-    <row r="34" spans="2:6" ht="14.25" customHeight="1">
+        <v>80</v>
+      </c>
+      <c r="F33" s="69"/>
+      <c r="H33" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="30"/>
+    </row>
+    <row r="34" spans="2:10" ht="14.25" customHeight="1">
       <c r="B34" s="10"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="31">
+      <c r="C34" s="28">
         <v>7236396</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="34"/>
-    </row>
-    <row r="35" spans="2:6" ht="14.25" customHeight="1">
+      <c r="D34" s="28"/>
+      <c r="E34" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="69"/>
+      <c r="H34" s="91" t="s">
+        <v>83</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+    </row>
+    <row r="35" spans="2:10" ht="14.25" customHeight="1">
       <c r="B35" s="10"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4">
+      <c r="C35" s="4">
         <v>1270429</v>
       </c>
+      <c r="D35" s="4"/>
       <c r="E35" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" s="34"/>
-    </row>
-    <row r="36" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16">
+        <v>39</v>
+      </c>
+      <c r="F35" s="69"/>
+      <c r="H35" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+    </row>
+    <row r="36" spans="2:10" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B36" s="96"/>
+      <c r="C36" s="97">
         <v>500000</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="35"/>
-    </row>
-    <row r="37" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="2:3" ht="14.25" customHeight="1">
+      <c r="D36" s="97"/>
+      <c r="E36" s="98" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="69"/>
+      <c r="H36" s="71">
+        <f>1000*((133-51)*7+(486-170))</f>
+        <v>890000</v>
+      </c>
+      <c r="I36" s="73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="14.25" customHeight="1" thickTop="1">
+      <c r="B37" s="60">
+        <f>SUM(B32:B33)</f>
+        <v>9312.4430000000011</v>
+      </c>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="70"/>
+      <c r="H37" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="2:10" s="30" customFormat="1" ht="6" customHeight="1">
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="75"/>
+      <c r="H38" s="91"/>
+    </row>
+    <row r="39" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B39" s="58"/>
+      <c r="C39" s="54">
+        <v>500000</v>
+      </c>
+      <c r="D39" s="65"/>
+      <c r="E39" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="79">
+        <v>45744</v>
+      </c>
+      <c r="H39" s="91" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B40" s="59"/>
+      <c r="C40" s="55">
+        <v>20000</v>
+      </c>
+      <c r="D40" s="45"/>
+      <c r="E40" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="80"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+    </row>
+    <row r="41" spans="2:10" s="30" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B41" s="59"/>
+      <c r="C41" s="83">
+        <v>210144.95</v>
+      </c>
+      <c r="D41" s="45"/>
+      <c r="E41" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="80"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="2:10" s="30" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B42" s="59"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55">
+        <v>2900000</v>
+      </c>
+      <c r="E42" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="80"/>
+      <c r="H42"/>
+      <c r="I42" s="72" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" s="30" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B43" s="59"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55">
+        <v>1100000</v>
+      </c>
+      <c r="E43" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="80"/>
+      <c r="I43" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" s="30" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B44" s="59"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55">
+        <v>73000</v>
+      </c>
+      <c r="E44" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="80"/>
+      <c r="I44" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B45" s="59"/>
+      <c r="C45" s="82">
+        <v>4075110.11</v>
+      </c>
+      <c r="D45" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="80"/>
+    </row>
+    <row r="46" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B46" s="66">
+        <f>SUM(C39:C45)/1000</f>
+        <v>4805.2550599999995</v>
+      </c>
+      <c r="C46" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="62"/>
+      <c r="E46" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="80"/>
+    </row>
+    <row r="47" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B47" s="67">
+        <f>C49/1000</f>
+        <v>3529.0657000000001</v>
+      </c>
+      <c r="C47" s="45"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="80"/>
+    </row>
+    <row r="48" spans="2:10" s="30" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B48" s="67"/>
+      <c r="C48" s="45">
+        <v>0</v>
+      </c>
+      <c r="D48" s="57"/>
+      <c r="E48" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="80"/>
+    </row>
+    <row r="49" spans="2:6" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B49" s="92"/>
+      <c r="C49" s="93">
+        <v>3529065.7</v>
+      </c>
+      <c r="D49" s="94"/>
+      <c r="E49" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" s="80"/>
+    </row>
+    <row r="50" spans="2:6" ht="14.25" customHeight="1" thickTop="1">
+      <c r="B50" s="60">
+        <f>SUM(B46:B47)</f>
+        <v>8334.3207599999987</v>
+      </c>
+      <c r="C50" s="61"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="80"/>
+    </row>
+    <row r="51" spans="2:6" ht="14.25" customHeight="1">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
     </row>
-    <row r="52" spans="2:3" ht="14.25" customHeight="1">
+    <row r="52" spans="2:6" ht="14.25" customHeight="1">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
     </row>
-    <row r="53" spans="2:3" ht="14.25" customHeight="1">
+    <row r="53" spans="2:6" ht="14.25" customHeight="1">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
     </row>
-    <row r="54" spans="2:3" ht="14.25" customHeight="1">
+    <row r="54" spans="2:6" ht="14.25" customHeight="1">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
     </row>
-    <row r="55" spans="2:3" ht="14.25" customHeight="1">
+    <row r="55" spans="2:6" ht="14.25" customHeight="1">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="2:3" ht="14.25" customHeight="1">
+    <row r="56" spans="2:6" ht="14.25" customHeight="1">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
     </row>
-    <row r="57" spans="2:3" ht="14.25" customHeight="1">
+    <row r="57" spans="2:6" ht="14.25" customHeight="1">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
     </row>
-    <row r="58" spans="2:3" ht="14.25" customHeight="1">
+    <row r="58" spans="2:6" ht="14.25" customHeight="1">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
     </row>
-    <row r="59" spans="2:3" ht="14.25" customHeight="1">
+    <row r="59" spans="2:6" ht="14.25" customHeight="1">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="2:3" ht="14.25" customHeight="1">
+    <row r="60" spans="2:6" ht="14.25" customHeight="1">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
     </row>
-    <row r="61" spans="2:3" ht="14.25" customHeight="1">
+    <row r="61" spans="2:6" ht="14.25" customHeight="1">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="2:3" ht="14.25" customHeight="1">
+    <row r="62" spans="2:6" ht="14.25" customHeight="1">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="2:3" ht="14.25" customHeight="1">
+    <row r="63" spans="2:6" ht="14.25" customHeight="1">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="2:3" ht="14.25" customHeight="1">
+    <row r="64" spans="2:6" ht="14.25" customHeight="1">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
     </row>
@@ -10129,86 +10588,15 @@
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
     </row>
-    <row r="983" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B983" s="4"/>
-      <c r="C983" s="4"/>
-    </row>
-    <row r="984" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B984" s="4"/>
-      <c r="C984" s="4"/>
-    </row>
-    <row r="985" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B985" s="4"/>
-      <c r="C985" s="4"/>
-    </row>
-    <row r="986" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B986" s="4"/>
-      <c r="C986" s="4"/>
-    </row>
-    <row r="987" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B987" s="4"/>
-      <c r="C987" s="4"/>
-    </row>
-    <row r="988" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B988" s="4"/>
-      <c r="C988" s="4"/>
-    </row>
-    <row r="989" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B989" s="4"/>
-      <c r="C989" s="4"/>
-    </row>
-    <row r="990" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B990" s="4"/>
-      <c r="C990" s="4"/>
-    </row>
-    <row r="991" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B991" s="4"/>
-      <c r="C991" s="4"/>
-    </row>
-    <row r="992" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B992" s="4"/>
-      <c r="C992" s="4"/>
-    </row>
-    <row r="993" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B993" s="4"/>
-      <c r="C993" s="4"/>
-    </row>
-    <row r="994" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B994" s="4"/>
-      <c r="C994" s="4"/>
-    </row>
-    <row r="995" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B995" s="4"/>
-      <c r="C995" s="4"/>
-    </row>
-    <row r="996" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B996" s="4"/>
-      <c r="C996" s="4"/>
-    </row>
-    <row r="997" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B997" s="4"/>
-      <c r="C997" s="4"/>
-    </row>
-    <row r="998" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B998" s="4"/>
-      <c r="C998" s="4"/>
-    </row>
-    <row r="999" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B999" s="4"/>
-      <c r="C999" s="4"/>
-    </row>
-    <row r="1000" spans="2:3" ht="14.25" customHeight="1">
-      <c r="B1000" s="4"/>
-      <c r="C1000" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="F39:F50"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F27:F36"/>
+    <mergeCell ref="F27:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/msff/xls/DJDJ1010.xlsx
+++ b/msff/xls/DJDJ1010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB73A29-0D0F-4633-9F69-E085B3562464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143784A1-F28C-4648-8E71-81F3438AE887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly fees" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>This tab includes all and only monthly recurring fees.</t>
   </si>
@@ -151,22 +151,10 @@
     <t>other expenses till EOY #5k/M</t>
   </si>
   <si>
-    <t>AA+BB snapshot 21-Dec-24</t>
-  </si>
-  <si>
     <t>..grandma PSBC</t>
   </si>
   <si>
-    <t>..lent to Genn HSBC</t>
-  </si>
-  <si>
-    <t>Room1109</t>
-  </si>
-  <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>#1010</t>
   </si>
   <si>
     <t>18k/M</t>
@@ -217,28 +205,16 @@
     <t>by 28 Mar 2025, Project1560 has expatriated</t>
   </si>
   <si>
-    <t>Between 21-Dec-2024 and 28-Mar-2025</t>
-  </si>
-  <si>
-    <t>AA + BB</t>
-  </si>
-  <si>
     <t>..TJJ PSBC negligible</t>
   </si>
   <si>
     <t>…. LSQ ICBC USD 10268.8 #est</t>
   </si>
   <si>
-    <t>…. LSQ ICBC other deposit #est</t>
-  </si>
-  <si>
     <t>…. LSQ ICBC 3Y FixD</t>
   </si>
   <si>
     <t>..LSQ lent to Genn</t>
-  </si>
-  <si>
-    <t>..LSQ fund in TB's onshore accounts</t>
   </si>
   <si>
     <t>..LSQ PSBC total-per-screenshot</t>
@@ -318,6 +294,101 @@
   <si>
     <t>..grandpa ICBC USD 2k #est</t>
   </si>
+  <si>
+    <t>.. TJJ ICBC FixD</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>..LSQ fund in ICBC::TB</t>
+  </si>
+  <si>
+    <t>.. TJJ ICBC savings</t>
+  </si>
+  <si>
+    <t>..LSQ fund in PSBC::TB</t>
+  </si>
+  <si>
+    <t>= paid to DJDJ</t>
+  </si>
+  <si>
+    <t>..grandma lent to Genn HSBC</t>
+  </si>
+  <si>
+    <t>..LSQ PSBC total per Genn</t>
+  </si>
+  <si>
+    <t>.. LSQ ICBC total per Genn</t>
+  </si>
+  <si>
+    <t>..LSQ in TB's onshore banks #est</t>
+  </si>
+  <si>
+    <t>…. LSQ ICBC other RMB #est</t>
+  </si>
+  <si>
+    <t>crosscheck 11-Mar-2025</t>
+  </si>
+  <si>
+    <t>AA+BB @11Mar: integrity crosscheck by Genn</t>
+  </si>
+  <si>
+    <t>AA + BB @21-Dec-2024</t>
+  </si>
+  <si>
+    <t>AA + BB @28-Mar-2025</t>
+  </si>
+  <si>
+    <t>R#1109</t>
+  </si>
+  <si>
+    <t>R#1010</t>
+  </si>
+  <si>
+    <t>AA+BB @21-Dec-2024</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>21-Dec-2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  to  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>28-Mar-2025</t>
+    </r>
+  </si>
+  <si>
+    <t>salaries but no 抚恤金 yet</t>
+  </si>
+  <si>
+    <t>expenses including legal</t>
+  </si>
 </sst>
 </file>
 
@@ -328,15 +399,22 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="\+0;\-0;0"/>
     <numFmt numFmtId="166" formatCode="[$¥-804]#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="[$¥-804]#,##0"/>
-    <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="172" formatCode="[$¥-804]#,##0;[$¥-804]\-#,##0"/>
+    <numFmt numFmtId="167" formatCode="[$¥-804]#,##0"/>
+    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="[$¥-804]#,##0;[$¥-804]\-#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,6 +458,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -389,7 +493,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -616,17 +720,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -659,157 +752,232 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1029,7 +1197,7 @@
   <dimension ref="B1:H1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1045,12 +1213,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="2:8" ht="14.25" customHeight="1">
       <c r="B2" s="1"/>
@@ -1061,38 +1229,38 @@
       <c r="B3" s="1">
         <v>248966.88</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="C3" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B4" s="52">
+      <c r="B4" s="44">
         <v>12768</v>
       </c>
-      <c r="C4" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="H4" s="43"/>
+      <c r="C4" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="2:8" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
-      <c r="B5" s="46">
+      <c r="B5" s="38">
         <f>SUM(B3:B4)</f>
         <v>261734.88</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="H5" s="43"/>
+      <c r="C5" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="2:8" ht="14.25" customHeight="1">
       <c r="B6" s="1"/>
@@ -1103,95 +1271,95 @@
     <row r="7" spans="2:8" ht="14.25" customHeight="1">
       <c r="B7" s="31"/>
       <c r="C7" s="33" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="33" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="2:8" ht="14.25" customHeight="1">
       <c r="B8" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="47">
+        <v>49</v>
+      </c>
+      <c r="C8" s="39">
         <f>B5/12</f>
         <v>21811.24</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="47">
+      <c r="D8" s="40"/>
+      <c r="E8" s="39">
         <v>12159.24</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="14.25" customHeight="1">
       <c r="B9" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="50">
+        <v>46</v>
+      </c>
+      <c r="C9" s="42">
         <v>2500</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="50" t="s">
-        <v>42</v>
+      <c r="D9" s="43"/>
+      <c r="E9" s="42" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="14.25" customHeight="1">
       <c r="B10" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="50">
+        <v>43</v>
+      </c>
+      <c r="C10" s="42">
         <f>E10*2</f>
         <v>3600</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="50">
+      <c r="D10" s="43"/>
+      <c r="E10" s="42">
         <v>1800</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="14.25" customHeight="1">
       <c r="B11" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="50">
+        <v>45</v>
+      </c>
+      <c r="C11" s="42">
         <f>1000+4000</f>
         <v>5000</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="50">
+      <c r="D11" s="43"/>
+      <c r="E11" s="42">
         <v>4000</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="14.25" customHeight="1">
       <c r="B12" s="31"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="50"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="2:8" ht="14.25" customHeight="1">
       <c r="B13" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="39">
         <f>SUM(C8:C11)</f>
         <v>32911.240000000005</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="47">
+      <c r="D13" s="41"/>
+      <c r="E13" s="39">
         <f>SUM(E8:E11)</f>
         <v>17959.239999999998</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="14.25" customHeight="1">
       <c r="B14" s="33" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="34" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="14.25" customHeight="1">
@@ -6143,10 +6311,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:J982"/>
+  <dimension ref="B1:J993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6178,7 +6346,7 @@
       <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="84" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="9">
@@ -6197,31 +6365,31 @@
       <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="37"/>
+      <c r="F3" s="85"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B4" s="39">
+      <c r="B4" s="87">
         <f>SUM(D2:D3)</f>
         <v>460</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="37"/>
+      <c r="F4" s="85"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B5" s="41">
+      <c r="B5" s="89">
         <f>SUM(D6:D7)</f>
         <v>1290</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="37"/>
+      <c r="F5" s="85"/>
     </row>
     <row r="6" spans="2:9" ht="14.25" customHeight="1">
       <c r="B6" s="10" t="s">
@@ -6234,7 +6402,7 @@
       <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="37"/>
+      <c r="F6" s="85"/>
     </row>
     <row r="7" spans="2:9" ht="14.25" customHeight="1">
       <c r="B7" s="13" t="s">
@@ -6247,7 +6415,7 @@
       <c r="E7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="86"/>
     </row>
     <row r="8" spans="2:9" ht="3" customHeight="1">
       <c r="B8" s="4"/>
@@ -6500,11 +6668,11 @@
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="17">
-        <f>SUM(B32:B33)</f>
+        <f>B37</f>
         <v>9312.4430000000011</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="F23" s="16"/>
     </row>
@@ -6516,8 +6684,8 @@
       <c r="F24" s="16"/>
     </row>
     <row r="25" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B25" s="86" t="s">
-        <v>76</v>
+      <c r="B25" s="69" t="s">
+        <v>68</v>
       </c>
       <c r="C25" s="4"/>
     </row>
@@ -6532,14 +6700,11 @@
         <f>150000+100000</f>
         <v>250000</v>
       </c>
-      <c r="E27" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="68">
+      <c r="E27" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="105">
         <v>45647</v>
-      </c>
-      <c r="I27" s="72" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="14.25" customHeight="1">
@@ -6549,84 +6714,71 @@
         <f>21650+2793</f>
         <v>24443</v>
       </c>
-      <c r="E28" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="69"/>
-      <c r="H28" s="9"/>
-      <c r="I28" t="s">
-        <v>54</v>
-      </c>
+      <c r="E28" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="106"/>
     </row>
     <row r="29" spans="2:10" ht="14.25" customHeight="1">
       <c r="B29" s="10"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="61">
+      <c r="C29" s="46"/>
+      <c r="D29" s="46">
         <v>15000</v>
       </c>
-      <c r="E29" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="69"/>
-      <c r="H29" s="9"/>
-      <c r="I29" t="s">
-        <v>55</v>
-      </c>
+      <c r="E29" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="106"/>
     </row>
     <row r="30" spans="2:10" ht="14.25" customHeight="1">
       <c r="B30" s="10"/>
-      <c r="C30" s="4">
+      <c r="C30" s="46">
         <v>291856</v>
       </c>
-      <c r="D30" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="69"/>
+      <c r="D30" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="106"/>
     </row>
     <row r="31" spans="2:10" ht="14.25" customHeight="1">
       <c r="B31" s="10"/>
-      <c r="C31" s="4">
+      <c r="C31" s="46">
         <v>13762</v>
       </c>
-      <c r="E31" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="69"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="106"/>
     </row>
     <row r="32" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B32" s="81">
+      <c r="B32" s="65">
         <f>SUM(C30:C31)/1000</f>
         <v>305.61799999999999</v>
       </c>
-      <c r="C32" s="87" t="s">
-        <v>77</v>
+      <c r="C32" s="70" t="s">
+        <v>69</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="69"/>
-      <c r="H32" s="91" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F32" s="106"/>
       <c r="J32" s="30"/>
     </row>
     <row r="33" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B33" s="67">
-        <f>SUM(C34:C37)/1000</f>
+      <c r="B33" s="58">
+        <f>SUM(C34:C36)/1000</f>
         <v>9006.8250000000007</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="69"/>
-      <c r="H33" s="91" t="s">
-        <v>83</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F33" s="106"/>
       <c r="J33" s="30"/>
     </row>
     <row r="34" spans="2:10" ht="14.25" customHeight="1">
@@ -6635,14 +6787,11 @@
         <v>7236396</v>
       </c>
       <c r="D34" s="28"/>
-      <c r="E34" s="84" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="69"/>
-      <c r="H34" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="I34" s="30"/>
+      <c r="E34" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="106"/>
+      <c r="H34" s="9"/>
       <c r="J34" s="30"/>
     </row>
     <row r="35" spans="2:10" ht="14.25" customHeight="1">
@@ -6652,267 +6801,380 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="69"/>
-      <c r="H35" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="I35" s="30"/>
+        <v>38</v>
+      </c>
+      <c r="F35" s="106"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="60" t="s">
+        <v>54</v>
+      </c>
       <c r="J35" s="30"/>
     </row>
     <row r="36" spans="2:10" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B36" s="96"/>
-      <c r="C36" s="97">
+      <c r="B36" s="77"/>
+      <c r="C36" s="78">
         <v>500000</v>
       </c>
-      <c r="D36" s="97"/>
-      <c r="E36" s="98" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="69"/>
-      <c r="H36" s="71">
+      <c r="D36" s="78"/>
+      <c r="E36" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="106"/>
+      <c r="H36"/>
+      <c r="I36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="14.25" customHeight="1" thickTop="1">
+      <c r="B37" s="51">
+        <f>SUM(B32:B33)</f>
+        <v>9312.4430000000011</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="107"/>
+      <c r="I37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" s="35" customFormat="1" ht="8.25" customHeight="1">
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="61"/>
+      <c r="H38" s="72"/>
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B39" s="49"/>
+      <c r="C39" s="45">
+        <v>500000</v>
+      </c>
+      <c r="D39" s="56"/>
+      <c r="E39" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="I39" s="96" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B40" s="50"/>
+      <c r="C40" s="46">
+        <v>67048.37</v>
+      </c>
+      <c r="D40" s="37"/>
+      <c r="E40" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="83"/>
+      <c r="I40" s="96" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B41" s="50"/>
+      <c r="C41" s="46">
+        <v>15116.18</v>
+      </c>
+      <c r="D41" s="37"/>
+      <c r="E41" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="83"/>
+      <c r="H41" s="102" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B42" s="50"/>
+      <c r="C42" s="46">
+        <v>800000</v>
+      </c>
+      <c r="D42" s="37"/>
+      <c r="E42" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="83"/>
+      <c r="H42" s="59">
         <f>1000*((133-51)*7+(486-170))</f>
         <v>890000</v>
       </c>
-      <c r="I36" s="73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" ht="14.25" customHeight="1" thickTop="1">
-      <c r="B37" s="60">
-        <f>SUM(B32:B33)</f>
-        <v>9312.4430000000011</v>
-      </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="63" t="s">
+      <c r="I42" s="97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B43" s="50"/>
+      <c r="C43" s="91">
+        <v>6975800</v>
+      </c>
+      <c r="D43" s="71"/>
+      <c r="E43" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="94"/>
+      <c r="H43" s="59">
+        <v>160000</v>
+      </c>
+      <c r="I43" s="98" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B44" s="57">
+        <f>SUM(C39:C43)/1000</f>
+        <v>8357.9645500000006</v>
+      </c>
+      <c r="C44" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="53"/>
+      <c r="E44" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="83"/>
+      <c r="H44" s="110" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B45" s="58">
+        <f>SUM(C46:C47)/1000</f>
+        <v>129.57773</v>
+      </c>
+      <c r="C45" s="93"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="83"/>
+      <c r="H45" s="111" t="s">
+        <v>79</v>
+      </c>
+      <c r="I45" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B46" s="58"/>
+      <c r="C46" s="93">
+        <v>100000</v>
+      </c>
+      <c r="D46" s="48"/>
+      <c r="E46" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="94"/>
+    </row>
+    <row r="47" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B47" s="73"/>
+      <c r="C47" s="78">
+        <f>26060.25+3517.48</f>
+        <v>29577.73</v>
+      </c>
+      <c r="D47" s="75"/>
+      <c r="E47" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="83"/>
+      <c r="I47" s="96" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
+      <c r="B48" s="51">
+        <f>SUM(B44:B45)</f>
+        <v>8487.5422800000015</v>
+      </c>
+      <c r="C48" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="62"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="83"/>
+      <c r="I48" s="96" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" s="30" customFormat="1" ht="8.25" customHeight="1">
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="61"/>
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="2:9" ht="14.25" customHeight="1">
+      <c r="B50" s="49"/>
+      <c r="C50" s="45">
+        <v>500000</v>
+      </c>
+      <c r="D50" s="56"/>
+      <c r="E50" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="103">
+        <v>45744</v>
+      </c>
+      <c r="I50" s="60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="14.25" customHeight="1">
+      <c r="B51" s="50"/>
+      <c r="C51" s="46">
+        <v>20000</v>
+      </c>
+      <c r="D51" s="37"/>
+      <c r="E51" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" s="104"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" s="30" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B52" s="50"/>
+      <c r="C52" s="66">
+        <v>210144.95</v>
+      </c>
+      <c r="D52" s="37"/>
+      <c r="E52" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" s="104"/>
+      <c r="I52" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" s="30" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B53" s="50"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46">
+        <v>2900000</v>
+      </c>
+      <c r="E53" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="104"/>
+    </row>
+    <row r="54" spans="2:9" s="30" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B54" s="50"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46">
+        <v>1100000</v>
+      </c>
+      <c r="E54" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" s="104"/>
+    </row>
+    <row r="55" spans="2:9" s="30" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B55" s="50"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46">
+        <v>73000</v>
+      </c>
+      <c r="E55" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" s="104"/>
+    </row>
+    <row r="56" spans="2:9" ht="14.25" customHeight="1">
+      <c r="B56" s="50"/>
+      <c r="C56" s="99">
+        <v>4075110.11</v>
+      </c>
+      <c r="D56" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="70"/>
-      <c r="H37" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="I37" s="30"/>
-    </row>
-    <row r="38" spans="2:10" s="30" customFormat="1" ht="6" customHeight="1">
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="75"/>
-      <c r="H38" s="91"/>
-    </row>
-    <row r="39" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B39" s="58"/>
-      <c r="C39" s="54">
-        <v>500000</v>
-      </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="79">
-        <v>45744</v>
-      </c>
-      <c r="H39" s="91" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B40" s="59"/>
-      <c r="C40" s="55">
-        <v>20000</v>
-      </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="80"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-    </row>
-    <row r="41" spans="2:10" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B41" s="59"/>
-      <c r="C41" s="83">
-        <v>210144.95</v>
-      </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="F41" s="80"/>
-      <c r="H41"/>
-    </row>
-    <row r="42" spans="2:10" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B42" s="59"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55">
-        <v>2900000</v>
-      </c>
-      <c r="E42" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" s="80"/>
-      <c r="H42"/>
-      <c r="I42" s="72" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B43" s="59"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55">
-        <v>1100000</v>
-      </c>
-      <c r="E43" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" s="80"/>
-      <c r="I43" s="30" t="s">
+      <c r="F56" s="104"/>
+    </row>
+    <row r="57" spans="2:9" ht="14.25" customHeight="1">
+      <c r="B57" s="57">
+        <f>SUM(C50:C56)/1000</f>
+        <v>4805.2550599999995</v>
+      </c>
+      <c r="C57" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="53"/>
+      <c r="E57" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" s="104"/>
+    </row>
+    <row r="58" spans="2:9" ht="14.25" customHeight="1">
+      <c r="B58" s="58">
+        <f>C60/1000</f>
+        <v>3529.0657000000001</v>
+      </c>
+      <c r="C58" s="37"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F58" s="104"/>
+    </row>
+    <row r="59" spans="2:9" s="30" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B59" s="58"/>
+      <c r="C59" s="37">
+        <v>0</v>
+      </c>
+      <c r="D59" s="48"/>
+      <c r="E59" s="55" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B44" s="59"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55">
-        <v>73000</v>
-      </c>
-      <c r="E44" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44" s="80"/>
-      <c r="I44" s="30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B45" s="59"/>
-      <c r="C45" s="82">
-        <v>4075110.11</v>
-      </c>
-      <c r="D45" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="F45" s="80"/>
-    </row>
-    <row r="46" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B46" s="66">
-        <f>SUM(C39:C45)/1000</f>
-        <v>4805.2550599999995</v>
-      </c>
-      <c r="C46" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="62"/>
-      <c r="E46" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="80"/>
-    </row>
-    <row r="47" spans="2:10" ht="14.25" customHeight="1">
-      <c r="B47" s="67">
-        <f>C49/1000</f>
-        <v>3529.0657000000001</v>
-      </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="80"/>
-    </row>
-    <row r="48" spans="2:10" s="30" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B48" s="67"/>
-      <c r="C48" s="45">
-        <v>0</v>
-      </c>
-      <c r="D48" s="57"/>
-      <c r="E48" s="64" t="s">
+      <c r="F59" s="104"/>
+    </row>
+    <row r="60" spans="2:9" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+      <c r="B60" s="73"/>
+      <c r="C60" s="74">
+        <v>3529065.7</v>
+      </c>
+      <c r="D60" s="75"/>
+      <c r="E60" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="F48" s="80"/>
-    </row>
-    <row r="49" spans="2:6" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B49" s="92"/>
-      <c r="C49" s="93">
-        <v>3529065.7</v>
-      </c>
-      <c r="D49" s="94"/>
-      <c r="E49" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="80"/>
-    </row>
-    <row r="50" spans="2:6" ht="14.25" customHeight="1" thickTop="1">
-      <c r="B50" s="60">
-        <f>SUM(B46:B47)</f>
+      <c r="F60" s="104"/>
+    </row>
+    <row r="61" spans="2:9" ht="14.25" customHeight="1" thickTop="1">
+      <c r="B61" s="51">
+        <f>SUM(B57:B58)</f>
         <v>8334.3207599999987</v>
       </c>
-      <c r="C50" s="61"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" s="80"/>
-    </row>
-    <row r="51" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="2:6" ht="14.25" customHeight="1">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-    </row>
-    <row r="62" spans="2:6" ht="14.25" customHeight="1">
+      <c r="C61" s="52"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="F61" s="104"/>
+    </row>
+    <row r="62" spans="2:9" ht="14.25" customHeight="1">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="2:6" ht="14.25" customHeight="1">
+    <row r="63" spans="2:9" ht="14.25" customHeight="1">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="2:6" ht="14.25" customHeight="1">
+    <row r="64" spans="2:9" ht="14.25" customHeight="1">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
     </row>
@@ -10588,13 +10850,58 @@
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
     </row>
+    <row r="983" spans="2:3" ht="14.25" customHeight="1">
+      <c r="B983" s="4"/>
+      <c r="C983" s="4"/>
+    </row>
+    <row r="984" spans="2:3" ht="14.25" customHeight="1">
+      <c r="B984" s="4"/>
+      <c r="C984" s="4"/>
+    </row>
+    <row r="985" spans="2:3" ht="14.25" customHeight="1">
+      <c r="B985" s="4"/>
+      <c r="C985" s="4"/>
+    </row>
+    <row r="986" spans="2:3" ht="14.25" customHeight="1">
+      <c r="B986" s="4"/>
+      <c r="C986" s="4"/>
+    </row>
+    <row r="987" spans="2:3" ht="14.25" customHeight="1">
+      <c r="B987" s="4"/>
+      <c r="C987" s="4"/>
+    </row>
+    <row r="988" spans="2:3" ht="14.25" customHeight="1">
+      <c r="B988" s="4"/>
+      <c r="C988" s="4"/>
+    </row>
+    <row r="989" spans="2:3" ht="14.25" customHeight="1">
+      <c r="B989" s="4"/>
+      <c r="C989" s="4"/>
+    </row>
+    <row r="990" spans="2:3" ht="14.25" customHeight="1">
+      <c r="B990" s="4"/>
+      <c r="C990" s="4"/>
+    </row>
+    <row r="991" spans="2:3" ht="14.25" customHeight="1">
+      <c r="B991" s="4"/>
+      <c r="C991" s="4"/>
+    </row>
+    <row r="992" spans="2:3" ht="14.25" customHeight="1">
+      <c r="B992" s="4"/>
+      <c r="C992" s="4"/>
+    </row>
+    <row r="993" spans="2:3" ht="14.25" customHeight="1">
+      <c r="B993" s="4"/>
+      <c r="C993" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F39:F50"/>
+  <mergeCells count="6">
+    <mergeCell ref="F50:F61"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="F27:F37"/>
+    <mergeCell ref="F39:F48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/msff/xls/DJDJ1010.xlsx
+++ b/msff/xls/DJDJ1010.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143784A1-F28C-4648-8E71-81F3438AE887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C202F2A3-CF71-49F5-8737-454324B807CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,8 @@
     <sheet name="monthly fees" sheetId="1" r:id="rId1"/>
     <sheet name="snapshot+cashflow" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="Uu3a2cpKFShdQOS5hGbHVpBpZG3LBMziin5Lk/AzPWM="/>
     </ext>
@@ -35,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>This tab includes all and only monthly recurring fees.</t>
   </si>
@@ -289,9 +280,6 @@
     <t>↙</t>
   </si>
   <si>
-    <t>= Extra RMB expatriated</t>
-  </si>
-  <si>
     <t>..grandpa ICBC USD 2k #est</t>
   </si>
   <si>
@@ -388,6 +376,12 @@
   </si>
   <si>
     <t>expenses including legal</t>
+  </si>
+  <si>
+    <t>= RMB to Australia</t>
+  </si>
+  <si>
+    <t>= RMB to Sgp</t>
   </si>
 </sst>
 </file>
@@ -914,12 +908,44 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -933,50 +959,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="168" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1213,12 +1207,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
     </row>
     <row r="2" spans="2:8" ht="14.25" customHeight="1">
       <c r="B2" s="1"/>
@@ -1229,24 +1223,24 @@
       <c r="B3" s="1">
         <v>248966.88</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="B4" s="44">
         <v>12768</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="2:8" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
@@ -1254,12 +1248,12 @@
         <f>SUM(B3:B4)</f>
         <v>261734.88</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
       <c r="H5" s="36"/>
     </row>
     <row r="6" spans="2:8" ht="14.25" customHeight="1">
@@ -1271,11 +1265,11 @@
     <row r="7" spans="2:8" ht="14.25" customHeight="1">
       <c r="B7" s="31"/>
       <c r="C7" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -6313,8 +6307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6346,7 +6340,7 @@
       <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="98" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="9">
@@ -6365,31 +6359,31 @@
       <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="85"/>
+      <c r="F3" s="99"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B4" s="87">
+      <c r="B4" s="101">
         <f>SUM(D2:D3)</f>
         <v>460</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="85"/>
+      <c r="F4" s="99"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B5" s="89">
+      <c r="B5" s="103">
         <f>SUM(D6:D7)</f>
         <v>1290</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
       <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="85"/>
+      <c r="F5" s="99"/>
     </row>
     <row r="6" spans="2:9" ht="14.25" customHeight="1">
       <c r="B6" s="10" t="s">
@@ -6402,7 +6396,7 @@
       <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="85"/>
+      <c r="F6" s="99"/>
     </row>
     <row r="7" spans="2:9" ht="14.25" customHeight="1">
       <c r="B7" s="13" t="s">
@@ -6415,7 +6409,7 @@
       <c r="E7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="86"/>
+      <c r="F7" s="100"/>
     </row>
     <row r="8" spans="2:9" ht="3" customHeight="1">
       <c r="B8" s="4"/>
@@ -6672,7 +6666,7 @@
         <v>9312.4430000000011</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F23" s="16"/>
     </row>
@@ -6725,8 +6719,8 @@
       <c r="D29" s="46">
         <v>15000</v>
       </c>
-      <c r="E29" s="101" t="s">
-        <v>77</v>
+      <c r="E29" s="88" t="s">
+        <v>76</v>
       </c>
       <c r="F29" s="106"/>
     </row>
@@ -6738,7 +6732,7 @@
       <c r="D30" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="95" t="s">
+      <c r="E30" s="83" t="s">
         <v>65</v>
       </c>
       <c r="F30" s="106"/>
@@ -6749,7 +6743,7 @@
         <v>13762</v>
       </c>
       <c r="D31" s="37"/>
-      <c r="E31" s="95" t="s">
+      <c r="E31" s="83" t="s">
         <v>63</v>
       </c>
       <c r="F31" s="106"/>
@@ -6817,7 +6811,7 @@
       </c>
       <c r="D36" s="78"/>
       <c r="E36" s="79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F36" s="106"/>
       <c r="H36"/>
@@ -6833,7 +6827,7 @@
       <c r="C37" s="52"/>
       <c r="D37" s="52"/>
       <c r="E37" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="107"/>
       <c r="I37" t="s">
@@ -6858,10 +6852,10 @@
       <c r="E39" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="F39" s="109" t="s">
-        <v>89</v>
-      </c>
-      <c r="I39" s="96" t="s">
+      <c r="F39" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="I39" s="84" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6872,10 +6866,10 @@
       </c>
       <c r="D40" s="37"/>
       <c r="E40" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="83"/>
-      <c r="I40" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="109"/>
+      <c r="I40" s="84" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6886,11 +6880,11 @@
       </c>
       <c r="D41" s="37"/>
       <c r="E41" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="F41" s="83"/>
-      <c r="H41" s="102" t="s">
-        <v>96</v>
+        <v>81</v>
+      </c>
+      <c r="F41" s="109"/>
+      <c r="H41" s="89" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
@@ -6900,32 +6894,32 @@
       </c>
       <c r="D42" s="37"/>
       <c r="E42" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" s="83"/>
+        <v>84</v>
+      </c>
+      <c r="F42" s="109"/>
       <c r="H42" s="59">
         <f>1000*((133-51)*7+(486-170))</f>
         <v>890000</v>
       </c>
-      <c r="I42" s="97" t="s">
-        <v>76</v>
+      <c r="I42" s="111" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="B43" s="50"/>
-      <c r="C43" s="91">
+      <c r="C43" s="80">
         <v>6975800</v>
       </c>
       <c r="D43" s="71"/>
-      <c r="E43" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" s="94"/>
+      <c r="E43" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="110"/>
       <c r="H43" s="59">
-        <v>160000</v>
-      </c>
-      <c r="I43" s="98" t="s">
-        <v>83</v>
+        <v>20000</v>
+      </c>
+      <c r="I43" s="85" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
@@ -6933,19 +6927,19 @@
         <f>SUM(C39:C43)/1000</f>
         <v>8357.9645500000006</v>
       </c>
-      <c r="C44" s="92" t="s">
+      <c r="C44" s="81" t="s">
         <v>69</v>
       </c>
       <c r="D44" s="53"/>
       <c r="E44" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="83"/>
-      <c r="H44" s="110" t="s">
-        <v>79</v>
-      </c>
-      <c r="I44" s="35" t="s">
-        <v>98</v>
+      <c r="F44" s="109"/>
+      <c r="H44" s="59">
+        <v>160000</v>
+      </c>
+      <c r="I44" s="85" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
@@ -6953,14 +6947,14 @@
         <f>SUM(C46:C47)/1000</f>
         <v>129.57773</v>
       </c>
-      <c r="C45" s="93"/>
+      <c r="C45" s="82"/>
       <c r="D45" s="48"/>
       <c r="E45" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F45" s="83"/>
-      <c r="H45" s="111" t="s">
-        <v>79</v>
+      <c r="F45" s="109"/>
+      <c r="H45" s="91" t="s">
+        <v>78</v>
       </c>
       <c r="I45" s="35" t="s">
         <v>97</v>
@@ -6968,14 +6962,20 @@
     </row>
     <row r="46" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="B46" s="58"/>
-      <c r="C46" s="93">
+      <c r="C46" s="82">
         <v>100000</v>
       </c>
       <c r="D46" s="48"/>
-      <c r="E46" s="95" t="s">
+      <c r="E46" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="F46" s="110"/>
+      <c r="H46" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="94"/>
+      <c r="I46" s="35" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="47" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="B47" s="73"/>
@@ -6985,10 +6985,10 @@
       </c>
       <c r="D47" s="75"/>
       <c r="E47" s="76" t="s">
-        <v>81</v>
-      </c>
-      <c r="F47" s="83"/>
-      <c r="I47" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="109"/>
+      <c r="I47" s="84" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6998,12 +6998,12 @@
         <v>8487.5422800000015</v>
       </c>
       <c r="C48" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D48" s="62"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="83"/>
-      <c r="I48" s="96" t="s">
+      <c r="E48" s="90"/>
+      <c r="F48" s="109"/>
+      <c r="I48" s="84" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       <c r="D49" s="46"/>
       <c r="E49" s="47"/>
       <c r="F49" s="61"/>
-      <c r="H49"/>
+      <c r="H49" s="35"/>
     </row>
     <row r="50" spans="2:9" ht="14.25" customHeight="1">
       <c r="B50" s="49"/>
@@ -7024,7 +7024,7 @@
       <c r="E50" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="F50" s="103">
+      <c r="F50" s="96">
         <v>45744</v>
       </c>
       <c r="I50" s="60" t="s">
@@ -7038,10 +7038,9 @@
       </c>
       <c r="D51" s="37"/>
       <c r="E51" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" s="104"/>
-      <c r="H51" s="30"/>
+        <v>86</v>
+      </c>
+      <c r="F51" s="97"/>
       <c r="I51" s="30" t="s">
         <v>52</v>
       </c>
@@ -7055,7 +7054,7 @@
       <c r="E52" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="F52" s="104"/>
+      <c r="F52" s="97"/>
       <c r="I52" s="30" t="s">
         <v>53</v>
       </c>
@@ -7069,7 +7068,7 @@
       <c r="E53" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="104"/>
+      <c r="F53" s="97"/>
     </row>
     <row r="54" spans="2:9" s="30" customFormat="1" ht="14.25" customHeight="1">
       <c r="B54" s="50"/>
@@ -7078,9 +7077,9 @@
         <v>1100000</v>
       </c>
       <c r="E54" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="F54" s="104"/>
+        <v>87</v>
+      </c>
+      <c r="F54" s="97"/>
     </row>
     <row r="55" spans="2:9" s="30" customFormat="1" ht="14.25" customHeight="1">
       <c r="B55" s="50"/>
@@ -7091,20 +7090,21 @@
       <c r="E55" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="F55" s="104"/>
+      <c r="F55" s="97"/>
     </row>
     <row r="56" spans="2:9" ht="14.25" customHeight="1">
       <c r="B56" s="50"/>
-      <c r="C56" s="99">
+      <c r="C56" s="86">
         <v>4075110.11</v>
       </c>
-      <c r="D56" s="100" t="s">
+      <c r="D56" s="87" t="s">
         <v>69</v>
       </c>
       <c r="E56" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F56" s="104"/>
+      <c r="F56" s="97"/>
+      <c r="H56" s="30"/>
     </row>
     <row r="57" spans="2:9" ht="14.25" customHeight="1">
       <c r="B57" s="57">
@@ -7118,7 +7118,7 @@
       <c r="E57" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="F57" s="104"/>
+      <c r="F57" s="97"/>
     </row>
     <row r="58" spans="2:9" ht="14.25" customHeight="1">
       <c r="B58" s="58">
@@ -7130,7 +7130,7 @@
       <c r="E58" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="104"/>
+      <c r="F58" s="97"/>
     </row>
     <row r="59" spans="2:9" s="30" customFormat="1" ht="14.25" customHeight="1">
       <c r="B59" s="58"/>
@@ -7141,7 +7141,8 @@
       <c r="E59" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="104"/>
+      <c r="F59" s="97"/>
+      <c r="H59"/>
     </row>
     <row r="60" spans="2:9" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="B60" s="73"/>
@@ -7152,7 +7153,7 @@
       <c r="E60" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="F60" s="104"/>
+      <c r="F60" s="97"/>
     </row>
     <row r="61" spans="2:9" ht="14.25" customHeight="1" thickTop="1">
       <c r="B61" s="51">
@@ -7162,9 +7163,10 @@
       <c r="C61" s="52"/>
       <c r="D61" s="62"/>
       <c r="E61" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="F61" s="104"/>
+        <v>91</v>
+      </c>
+      <c r="F61" s="97"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" spans="2:9" ht="14.25" customHeight="1">
       <c r="B62" s="4"/>

--- a/msff/xls/DJDJ1010.xlsx
+++ b/msff/xls/DJDJ1010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C202F2A3-CF71-49F5-8737-454324B807CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265BDE71-1EF6-4C1B-8E14-75B989CD1943}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,10 +378,10 @@
     <t>expenses including legal</t>
   </si>
   <si>
-    <t>= RMB to Australia</t>
+    <t>= RMB to Sgp</t>
   </si>
   <si>
-    <t>= RMB to Sgp</t>
+    <t>= RMB to Australia as part of HSBC500k</t>
   </si>
 </sst>
 </file>
@@ -397,11 +397,18 @@
     <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="169" formatCode="[$¥-804]#,##0;[$¥-804]\-#,##0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -795,103 +802,103 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -901,77 +908,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1207,12 +1214,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
     </row>
     <row r="2" spans="2:8" ht="14.25" customHeight="1">
       <c r="B2" s="1"/>
@@ -1223,24 +1230,24 @@
       <c r="B3" s="1">
         <v>248966.88</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="B4" s="44">
         <v>12768</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="2:8" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
@@ -1248,12 +1255,12 @@
         <f>SUM(B3:B4)</f>
         <v>261734.88</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
       <c r="H5" s="36"/>
     </row>
     <row r="6" spans="2:8" ht="14.25" customHeight="1">
@@ -6307,8 +6314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6340,7 +6347,7 @@
       <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="99" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="9">
@@ -6359,31 +6366,31 @@
       <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="99"/>
+      <c r="F3" s="100"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B4" s="101">
+      <c r="B4" s="102">
         <f>SUM(D2:D3)</f>
         <v>460</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="99"/>
+      <c r="F4" s="100"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B5" s="103">
+      <c r="B5" s="104">
         <f>SUM(D6:D7)</f>
         <v>1290</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="99"/>
+      <c r="F5" s="100"/>
     </row>
     <row r="6" spans="2:9" ht="14.25" customHeight="1">
       <c r="B6" s="10" t="s">
@@ -6396,7 +6403,7 @@
       <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="99"/>
+      <c r="F6" s="100"/>
     </row>
     <row r="7" spans="2:9" ht="14.25" customHeight="1">
       <c r="B7" s="13" t="s">
@@ -6409,7 +6416,7 @@
       <c r="E7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="100"/>
+      <c r="F7" s="101"/>
     </row>
     <row r="8" spans="2:9" ht="3" customHeight="1">
       <c r="B8" s="4"/>
@@ -6697,7 +6704,7 @@
       <c r="E27" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="105">
+      <c r="F27" s="106">
         <v>45647</v>
       </c>
     </row>
@@ -6711,7 +6718,7 @@
       <c r="E28" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="106"/>
+      <c r="F28" s="107"/>
     </row>
     <row r="29" spans="2:10" ht="14.25" customHeight="1">
       <c r="B29" s="10"/>
@@ -6722,7 +6729,7 @@
       <c r="E29" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="106"/>
+      <c r="F29" s="107"/>
     </row>
     <row r="30" spans="2:10" ht="14.25" customHeight="1">
       <c r="B30" s="10"/>
@@ -6735,7 +6742,7 @@
       <c r="E30" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="106"/>
+      <c r="F30" s="107"/>
     </row>
     <row r="31" spans="2:10" ht="14.25" customHeight="1">
       <c r="B31" s="10"/>
@@ -6746,7 +6753,7 @@
       <c r="E31" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="106"/>
+      <c r="F31" s="107"/>
     </row>
     <row r="32" spans="2:10" ht="14.25" customHeight="1">
       <c r="B32" s="65">
@@ -6760,7 +6767,7 @@
       <c r="E32" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="106"/>
+      <c r="F32" s="107"/>
       <c r="J32" s="30"/>
     </row>
     <row r="33" spans="2:10" ht="14.25" customHeight="1">
@@ -6772,7 +6779,7 @@
       <c r="E33" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="106"/>
+      <c r="F33" s="107"/>
       <c r="J33" s="30"/>
     </row>
     <row r="34" spans="2:10" ht="14.25" customHeight="1">
@@ -6784,7 +6791,7 @@
       <c r="E34" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="106"/>
+      <c r="F34" s="107"/>
       <c r="H34" s="9"/>
       <c r="J34" s="30"/>
     </row>
@@ -6797,7 +6804,7 @@
       <c r="E35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="106"/>
+      <c r="F35" s="107"/>
       <c r="H35" s="9"/>
       <c r="I35" s="60" t="s">
         <v>54</v>
@@ -6813,7 +6820,7 @@
       <c r="E36" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="106"/>
+      <c r="F36" s="107"/>
       <c r="H36"/>
       <c r="I36" t="s">
         <v>50</v>
@@ -6829,7 +6836,7 @@
       <c r="E37" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="107"/>
+      <c r="F37" s="108"/>
       <c r="I37" t="s">
         <v>51</v>
       </c>
@@ -6852,7 +6859,7 @@
       <c r="E39" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="F39" s="108" t="s">
+      <c r="F39" s="109" t="s">
         <v>88</v>
       </c>
       <c r="I39" s="84" t="s">
@@ -6868,7 +6875,7 @@
       <c r="E40" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="F40" s="109"/>
+      <c r="F40" s="110"/>
       <c r="I40" s="84" t="s">
         <v>75</v>
       </c>
@@ -6882,7 +6889,7 @@
       <c r="E41" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="F41" s="109"/>
+      <c r="F41" s="110"/>
       <c r="H41" s="89" t="s">
         <v>95</v>
       </c>
@@ -6896,13 +6903,13 @@
       <c r="E42" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="109"/>
+      <c r="F42" s="110"/>
       <c r="H42" s="59">
         <f>1000*((133-51)*7+(486-170))</f>
         <v>890000</v>
       </c>
-      <c r="I42" s="111" t="s">
-        <v>99</v>
+      <c r="I42" s="93" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
@@ -6914,12 +6921,12 @@
       <c r="E43" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="F43" s="110"/>
+      <c r="F43" s="111"/>
       <c r="H43" s="59">
         <v>20000</v>
       </c>
       <c r="I43" s="85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
@@ -6934,7 +6941,7 @@
       <c r="E44" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="109"/>
+      <c r="F44" s="110"/>
       <c r="H44" s="59">
         <v>160000</v>
       </c>
@@ -6952,7 +6959,7 @@
       <c r="E45" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F45" s="109"/>
+      <c r="F45" s="110"/>
       <c r="H45" s="91" t="s">
         <v>78</v>
       </c>
@@ -6969,7 +6976,7 @@
       <c r="E46" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="110"/>
+      <c r="F46" s="111"/>
       <c r="H46" s="92" t="s">
         <v>78</v>
       </c>
@@ -6987,7 +6994,7 @@
       <c r="E47" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="F47" s="109"/>
+      <c r="F47" s="110"/>
       <c r="I47" s="84" t="s">
         <v>74</v>
       </c>
@@ -7002,7 +7009,7 @@
       </c>
       <c r="D48" s="62"/>
       <c r="E48" s="90"/>
-      <c r="F48" s="109"/>
+      <c r="F48" s="110"/>
       <c r="I48" s="84" t="s">
         <v>74</v>
       </c>
@@ -7024,7 +7031,7 @@
       <c r="E50" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="F50" s="96">
+      <c r="F50" s="97">
         <v>45744</v>
       </c>
       <c r="I50" s="60" t="s">
@@ -7040,7 +7047,7 @@
       <c r="E51" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="97"/>
+      <c r="F51" s="98"/>
       <c r="I51" s="30" t="s">
         <v>52</v>
       </c>
@@ -7054,7 +7061,7 @@
       <c r="E52" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="F52" s="97"/>
+      <c r="F52" s="98"/>
       <c r="I52" s="30" t="s">
         <v>53</v>
       </c>
@@ -7068,7 +7075,7 @@
       <c r="E53" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="97"/>
+      <c r="F53" s="98"/>
     </row>
     <row r="54" spans="2:9" s="30" customFormat="1" ht="14.25" customHeight="1">
       <c r="B54" s="50"/>
@@ -7079,7 +7086,7 @@
       <c r="E54" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="F54" s="97"/>
+      <c r="F54" s="98"/>
     </row>
     <row r="55" spans="2:9" s="30" customFormat="1" ht="14.25" customHeight="1">
       <c r="B55" s="50"/>
@@ -7090,7 +7097,7 @@
       <c r="E55" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="F55" s="97"/>
+      <c r="F55" s="98"/>
     </row>
     <row r="56" spans="2:9" ht="14.25" customHeight="1">
       <c r="B56" s="50"/>
@@ -7103,7 +7110,7 @@
       <c r="E56" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F56" s="97"/>
+      <c r="F56" s="98"/>
       <c r="H56" s="30"/>
     </row>
     <row r="57" spans="2:9" ht="14.25" customHeight="1">
@@ -7118,7 +7125,7 @@
       <c r="E57" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="F57" s="97"/>
+      <c r="F57" s="98"/>
     </row>
     <row r="58" spans="2:9" ht="14.25" customHeight="1">
       <c r="B58" s="58">
@@ -7130,7 +7137,7 @@
       <c r="E58" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="97"/>
+      <c r="F58" s="98"/>
     </row>
     <row r="59" spans="2:9" s="30" customFormat="1" ht="14.25" customHeight="1">
       <c r="B59" s="58"/>
@@ -7141,7 +7148,7 @@
       <c r="E59" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="F59" s="97"/>
+      <c r="F59" s="98"/>
       <c r="H59"/>
     </row>
     <row r="60" spans="2:9" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
@@ -7153,7 +7160,7 @@
       <c r="E60" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="F60" s="97"/>
+      <c r="F60" s="98"/>
     </row>
     <row r="61" spans="2:9" ht="14.25" customHeight="1" thickTop="1">
       <c r="B61" s="51">
@@ -7165,7 +7172,7 @@
       <c r="E61" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="F61" s="97"/>
+      <c r="F61" s="98"/>
       <c r="H61" s="30"/>
     </row>
     <row r="62" spans="2:9" ht="14.25" customHeight="1">

--- a/msff/xls/DJDJ1010.xlsx
+++ b/msff/xls/DJDJ1010.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265BDE71-1EF6-4C1B-8E14-75B989CD1943}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2573469D-973D-4482-886F-91100E0FAA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13875" windowHeight="21150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15780" windowHeight="21150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly fees" sheetId="1" r:id="rId1"/>
     <sheet name="snapshot+cashflow" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="Uu3a2cpKFShdQOS5hGbHVpBpZG3LBMziin5Lk/AzPWM="/>
     </ext>
@@ -26,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
   <si>
     <t>This tab includes all and only monthly recurring fees.</t>
   </si>
@@ -176,18 +185,6 @@
   </si>
   <si>
     <t>(折扣)房费</t>
-  </si>
-  <si>
-    <t>USD 51k</t>
-  </si>
-  <si>
-    <t>RMB 170k</t>
-  </si>
-  <si>
-    <t>USD 133k</t>
-  </si>
-  <si>
-    <t>RMB 486k</t>
   </si>
   <si>
     <t>by 21 Dec 2024, Project1560 has expatriated</t>
@@ -375,20 +372,23 @@
     <t>salaries but no 抚恤金 yet</t>
   </si>
   <si>
-    <t>expenses including legal</t>
-  </si>
-  <si>
     <t>= RMB to Sgp</t>
   </si>
   <si>
-    <t>= RMB to Australia as part of HSBC500k</t>
+    <t>expenses</t>
+  </si>
+  <si>
+    <t>= legal fees, not affecting the snapshots</t>
+  </si>
+  <si>
+    <t>= RMB to Aus as part of HSBC500k, not affecting the snapshots</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="\+0;\-0;0"/>
@@ -396,6 +396,7 @@
     <numFmt numFmtId="167" formatCode="[$¥-804]#,##0"/>
     <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="169" formatCode="[$¥-804]#,##0;[$¥-804]\-#,##0"/>
+    <numFmt numFmtId="171" formatCode="[$USD]\ #,##0"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -804,7 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -947,6 +948,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -979,6 +981,16 @@
     </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1214,12 +1226,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="2:8" ht="14.25" customHeight="1">
       <c r="B2" s="1"/>
@@ -1230,24 +1242,24 @@
       <c r="B3" s="1">
         <v>248966.88</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="B4" s="44">
         <v>12768</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="2:8" s="30" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
@@ -1255,12 +1267,12 @@
         <f>SUM(B3:B4)</f>
         <v>261734.88</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
       <c r="H5" s="36"/>
     </row>
     <row r="6" spans="2:8" ht="14.25" customHeight="1">
@@ -1272,11 +1284,11 @@
     <row r="7" spans="2:8" ht="14.25" customHeight="1">
       <c r="B7" s="31"/>
       <c r="C7" s="33" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="33" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -6314,8 +6326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6347,7 +6359,7 @@
       <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="100" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="9">
@@ -6366,31 +6378,31 @@
       <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="100"/>
+      <c r="F3" s="101"/>
     </row>
     <row r="4" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B4" s="102">
+      <c r="B4" s="103">
         <f>SUM(D2:D3)</f>
         <v>460</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
       <c r="E4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="100"/>
+      <c r="F4" s="101"/>
     </row>
     <row r="5" spans="2:9" ht="14.25" customHeight="1">
-      <c r="B5" s="104">
+      <c r="B5" s="105">
         <f>SUM(D6:D7)</f>
         <v>1290</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
       <c r="E5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="100"/>
+      <c r="F5" s="101"/>
     </row>
     <row r="6" spans="2:9" ht="14.25" customHeight="1">
       <c r="B6" s="10" t="s">
@@ -6403,7 +6415,7 @@
       <c r="E6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="100"/>
+      <c r="F6" s="101"/>
     </row>
     <row r="7" spans="2:9" ht="14.25" customHeight="1">
       <c r="B7" s="13" t="s">
@@ -6416,7 +6428,7 @@
       <c r="E7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="101"/>
+      <c r="F7" s="102"/>
     </row>
     <row r="8" spans="2:9" ht="3" customHeight="1">
       <c r="B8" s="4"/>
@@ -6673,7 +6685,7 @@
         <v>9312.4430000000011</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F23" s="16"/>
     </row>
@@ -6686,7 +6698,7 @@
     </row>
     <row r="25" spans="2:10" ht="14.25" customHeight="1">
       <c r="B25" s="69" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C25" s="4"/>
     </row>
@@ -6702,9 +6714,9 @@
         <v>250000</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="106">
+        <v>63</v>
+      </c>
+      <c r="F27" s="107">
         <v>45647</v>
       </c>
     </row>
@@ -6716,9 +6728,9 @@
         <v>24443</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="107"/>
+        <v>62</v>
+      </c>
+      <c r="F28" s="108"/>
     </row>
     <row r="29" spans="2:10" ht="14.25" customHeight="1">
       <c r="B29" s="10"/>
@@ -6727,9 +6739,9 @@
         <v>15000</v>
       </c>
       <c r="E29" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="107"/>
+        <v>72</v>
+      </c>
+      <c r="F29" s="108"/>
     </row>
     <row r="30" spans="2:10" ht="14.25" customHeight="1">
       <c r="B30" s="10"/>
@@ -6737,12 +6749,12 @@
         <v>291856</v>
       </c>
       <c r="D30" s="71" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E30" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="107"/>
+        <v>61</v>
+      </c>
+      <c r="F30" s="108"/>
     </row>
     <row r="31" spans="2:10" ht="14.25" customHeight="1">
       <c r="B31" s="10"/>
@@ -6751,9 +6763,9 @@
       </c>
       <c r="D31" s="37"/>
       <c r="E31" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="107"/>
+        <v>59</v>
+      </c>
+      <c r="F31" s="108"/>
     </row>
     <row r="32" spans="2:10" ht="14.25" customHeight="1">
       <c r="B32" s="65">
@@ -6761,13 +6773,13 @@
         <v>305.61799999999999</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="107"/>
+        <v>69</v>
+      </c>
+      <c r="F32" s="108"/>
       <c r="J32" s="30"/>
     </row>
     <row r="33" spans="2:10" ht="14.25" customHeight="1">
@@ -6777,9 +6789,9 @@
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="107"/>
+        <v>68</v>
+      </c>
+      <c r="F33" s="108"/>
       <c r="J33" s="30"/>
     </row>
     <row r="34" spans="2:10" ht="14.25" customHeight="1">
@@ -6789,9 +6801,9 @@
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="107"/>
+        <v>60</v>
+      </c>
+      <c r="F34" s="108"/>
       <c r="H34" s="9"/>
       <c r="J34" s="30"/>
     </row>
@@ -6804,10 +6816,10 @@
       <c r="E35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="107"/>
+      <c r="F35" s="108"/>
       <c r="H35" s="9"/>
       <c r="I35" s="60" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J35" s="30"/>
     </row>
@@ -6818,12 +6830,12 @@
       </c>
       <c r="D36" s="78"/>
       <c r="E36" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" s="107"/>
+        <v>79</v>
+      </c>
+      <c r="F36" s="108"/>
       <c r="H36"/>
-      <c r="I36" t="s">
-        <v>50</v>
+      <c r="I36" s="113">
+        <v>51000</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="14.25" customHeight="1" thickTop="1">
@@ -6834,12 +6846,13 @@
       <c r="C37" s="52"/>
       <c r="D37" s="52"/>
       <c r="E37" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="108"/>
-      <c r="I37" t="s">
-        <v>51</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F37" s="109"/>
+      <c r="I37" s="114">
+        <v>170000</v>
+      </c>
+      <c r="J37" s="94"/>
     </row>
     <row r="38" spans="2:10" s="35" customFormat="1" ht="8.25" customHeight="1">
       <c r="B38" s="46"/>
@@ -6857,13 +6870,13 @@
       </c>
       <c r="D39" s="56"/>
       <c r="E39" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="109" t="s">
-        <v>88</v>
+        <v>55</v>
+      </c>
+      <c r="F39" s="110" t="s">
+        <v>84</v>
       </c>
       <c r="I39" s="84" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
@@ -6873,12 +6886,10 @@
       </c>
       <c r="D40" s="37"/>
       <c r="E40" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="110"/>
-      <c r="I40" s="84" t="s">
         <v>75</v>
       </c>
+      <c r="F40" s="111"/>
+      <c r="I40" s="84"/>
     </row>
     <row r="41" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="B41" s="50"/>
@@ -6887,11 +6898,11 @@
       </c>
       <c r="D41" s="37"/>
       <c r="E41" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="110"/>
+        <v>77</v>
+      </c>
+      <c r="F41" s="111"/>
       <c r="H41" s="89" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
@@ -6901,16 +6912,17 @@
       </c>
       <c r="D42" s="37"/>
       <c r="E42" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" s="110"/>
+        <v>80</v>
+      </c>
+      <c r="F42" s="111"/>
       <c r="H42" s="59">
-        <f>1000*((133-51)*7+(486-170))</f>
+        <f>(I51-I36)*7+(I52-I37)</f>
         <v>890000</v>
       </c>
       <c r="I42" s="93" t="s">
-        <v>98</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="J42" s="59"/>
     </row>
     <row r="43" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
       <c r="B43" s="50"/>
@@ -6919,14 +6931,14 @@
       </c>
       <c r="D43" s="71"/>
       <c r="E43" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="111"/>
+        <v>81</v>
+      </c>
+      <c r="F43" s="112"/>
       <c r="H43" s="59">
         <v>20000</v>
       </c>
-      <c r="I43" s="85" t="s">
-        <v>99</v>
+      <c r="I43" s="115" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
@@ -6935,18 +6947,18 @@
         <v>8357.9645500000006</v>
       </c>
       <c r="C44" s="81" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D44" s="53"/>
       <c r="E44" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" s="110"/>
+        <v>67</v>
+      </c>
+      <c r="F44" s="111"/>
       <c r="H44" s="59">
-        <v>160000</v>
-      </c>
-      <c r="I44" s="85" t="s">
-        <v>82</v>
+        <v>40000</v>
+      </c>
+      <c r="I44" s="115" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
@@ -6957,14 +6969,14 @@
       <c r="C45" s="82"/>
       <c r="D45" s="48"/>
       <c r="E45" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="F45" s="110"/>
-      <c r="H45" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" s="111"/>
+      <c r="H45" s="59">
+        <v>160000</v>
+      </c>
+      <c r="I45" s="85" t="s">
         <v>78</v>
-      </c>
-      <c r="I45" s="35" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="46" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1">
@@ -6974,14 +6986,14 @@
       </c>
       <c r="D46" s="48"/>
       <c r="E46" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="F46" s="111"/>
-      <c r="H46" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="I46" s="35" t="s">
-        <v>96</v>
+        <v>73</v>
+      </c>
+      <c r="F46" s="112"/>
+      <c r="H46" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="I46" s="116" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
@@ -6992,11 +7004,14 @@
       </c>
       <c r="D47" s="75"/>
       <c r="E47" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="F47" s="110"/>
-      <c r="I47" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="111"/>
+      <c r="H47" s="92" t="s">
         <v>74</v>
+      </c>
+      <c r="I47" s="35" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="2:10" s="35" customFormat="1" ht="14.25" customHeight="1" thickTop="1">
@@ -7005,129 +7020,134 @@
         <v>8487.5422800000015</v>
       </c>
       <c r="C48" s="64" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D48" s="62"/>
       <c r="E48" s="90"/>
-      <c r="F48" s="110"/>
+      <c r="F48" s="111"/>
       <c r="I48" s="84" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" s="30" customFormat="1" ht="8.25" customHeight="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" s="30" customFormat="1" ht="8.25" customHeight="1">
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
       <c r="D49" s="46"/>
       <c r="E49" s="47"/>
       <c r="F49" s="61"/>
       <c r="H49" s="35"/>
-    </row>
-    <row r="50" spans="2:9" ht="14.25" customHeight="1">
+      <c r="I49" s="84"/>
+    </row>
+    <row r="50" spans="2:10" ht="14.25" customHeight="1">
       <c r="B50" s="49"/>
       <c r="C50" s="45">
         <v>500000</v>
       </c>
       <c r="D50" s="56"/>
       <c r="E50" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" s="97">
+        <v>55</v>
+      </c>
+      <c r="F50" s="98">
         <v>45744</v>
       </c>
+      <c r="H50" s="35"/>
       <c r="I50" s="60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="14.25" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="14.25" customHeight="1">
       <c r="B51" s="50"/>
       <c r="C51" s="46">
         <v>20000</v>
       </c>
       <c r="D51" s="37"/>
       <c r="E51" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="98"/>
-      <c r="I51" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" s="30" customFormat="1" ht="14.25" customHeight="1">
+        <v>82</v>
+      </c>
+      <c r="F51" s="99"/>
+      <c r="I51" s="113">
+        <v>133000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" s="30" customFormat="1" ht="14.25" customHeight="1">
       <c r="B52" s="50"/>
       <c r="C52" s="66">
         <v>210144.95</v>
       </c>
       <c r="D52" s="37"/>
       <c r="E52" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="F52" s="98"/>
-      <c r="I52" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" s="30" customFormat="1" ht="14.25" customHeight="1">
+        <v>56</v>
+      </c>
+      <c r="F52" s="99"/>
+      <c r="H52"/>
+      <c r="I52" s="114">
+        <v>486000</v>
+      </c>
+      <c r="J52" s="94"/>
+    </row>
+    <row r="53" spans="2:10" s="30" customFormat="1" ht="14.25" customHeight="1">
       <c r="B53" s="50"/>
       <c r="C53" s="46"/>
       <c r="D53" s="46">
         <v>2900000</v>
       </c>
       <c r="E53" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="98"/>
-    </row>
-    <row r="54" spans="2:9" s="30" customFormat="1" ht="14.25" customHeight="1">
+        <v>54</v>
+      </c>
+      <c r="F53" s="99"/>
+    </row>
+    <row r="54" spans="2:10" s="30" customFormat="1" ht="14.25" customHeight="1">
       <c r="B54" s="50"/>
       <c r="C54" s="46"/>
       <c r="D54" s="46">
         <v>1100000</v>
       </c>
       <c r="E54" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="F54" s="98"/>
-    </row>
-    <row r="55" spans="2:9" s="30" customFormat="1" ht="14.25" customHeight="1">
+        <v>83</v>
+      </c>
+      <c r="F54" s="99"/>
+    </row>
+    <row r="55" spans="2:10" s="30" customFormat="1" ht="14.25" customHeight="1">
       <c r="B55" s="50"/>
       <c r="C55" s="46"/>
       <c r="D55" s="46">
         <v>73000</v>
       </c>
       <c r="E55" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="F55" s="98"/>
-    </row>
-    <row r="56" spans="2:9" ht="14.25" customHeight="1">
+        <v>53</v>
+      </c>
+      <c r="F55" s="99"/>
+    </row>
+    <row r="56" spans="2:10" ht="14.25" customHeight="1">
       <c r="B56" s="50"/>
       <c r="C56" s="86">
         <v>4075110.11</v>
       </c>
       <c r="D56" s="87" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E56" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56" s="98"/>
+        <v>57</v>
+      </c>
+      <c r="F56" s="99"/>
       <c r="H56" s="30"/>
     </row>
-    <row r="57" spans="2:9" ht="14.25" customHeight="1">
+    <row r="57" spans="2:10" ht="14.25" customHeight="1">
       <c r="B57" s="57">
         <f>SUM(C50:C56)/1000</f>
         <v>4805.2550599999995</v>
       </c>
       <c r="C57" s="70" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D57" s="53"/>
       <c r="E57" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="F57" s="98"/>
-    </row>
-    <row r="58" spans="2:9" ht="14.25" customHeight="1">
+        <v>67</v>
+      </c>
+      <c r="F57" s="99"/>
+      <c r="H57" s="30"/>
+    </row>
+    <row r="58" spans="2:10" ht="14.25" customHeight="1">
       <c r="B58" s="58">
         <f>C60/1000</f>
         <v>3529.0657000000001</v>
@@ -7135,34 +7155,35 @@
       <c r="C58" s="37"/>
       <c r="D58" s="48"/>
       <c r="E58" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="F58" s="98"/>
-    </row>
-    <row r="59" spans="2:9" s="30" customFormat="1" ht="14.25" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="F58" s="99"/>
+    </row>
+    <row r="59" spans="2:10" s="30" customFormat="1" ht="14.25" customHeight="1">
       <c r="B59" s="58"/>
       <c r="C59" s="37">
         <v>0</v>
       </c>
       <c r="D59" s="48"/>
       <c r="E59" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" s="98"/>
+        <v>52</v>
+      </c>
+      <c r="F59" s="99"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="2:9" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+    <row r="60" spans="2:10" s="30" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
       <c r="B60" s="73"/>
       <c r="C60" s="74">
         <v>3529065.7</v>
       </c>
       <c r="D60" s="75"/>
       <c r="E60" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="F60" s="98"/>
-    </row>
-    <row r="61" spans="2:9" ht="14.25" customHeight="1" thickTop="1">
+        <v>58</v>
+      </c>
+      <c r="F60" s="99"/>
+      <c r="H60"/>
+    </row>
+    <row r="61" spans="2:10" ht="14.25" customHeight="1" thickTop="1">
       <c r="B61" s="51">
         <f>SUM(B57:B58)</f>
         <v>8334.3207599999987</v>
@@ -7170,20 +7191,21 @@
       <c r="C61" s="52"/>
       <c r="D61" s="62"/>
       <c r="E61" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="F61" s="98"/>
+        <v>87</v>
+      </c>
+      <c r="F61" s="99"/>
       <c r="H61" s="30"/>
     </row>
-    <row r="62" spans="2:9" ht="14.25" customHeight="1">
+    <row r="62" spans="2:10" ht="14.25" customHeight="1">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-    </row>
-    <row r="63" spans="2:9" ht="14.25" customHeight="1">
+      <c r="H62" s="30"/>
+    </row>
+    <row r="63" spans="2:10" ht="14.25" customHeight="1">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
     </row>
-    <row r="64" spans="2:9" ht="14.25" customHeight="1">
+    <row r="64" spans="2:10" ht="14.25" customHeight="1">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
     </row>
